--- a/Ellipsometry/SnO2_14AUG2018.xlsx
+++ b/Ellipsometry/SnO2_14AUG2018.xlsx
@@ -4,18 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="18195" windowHeight="11565"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="11505" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="B0053" sheetId="4" r:id="rId1"/>
     <sheet name="B0054" sheetId="1" r:id="rId2"/>
+    <sheet name="B0056" sheetId="5" r:id="rId3"/>
+    <sheet name="B0057" sheetId="8" r:id="rId4"/>
+    <sheet name="B0058" sheetId="6" r:id="rId5"/>
+    <sheet name="B0059" sheetId="7" r:id="rId6"/>
+    <sheet name="B0065" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="32">
   <si>
     <t>Position (cm)</t>
   </si>
@@ -154,9 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1804,4 +1810,3379 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="C2">
+        <v>74.38</v>
+      </c>
+      <c r="D2">
+        <v>1.7658</v>
+      </c>
+      <c r="E2">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G2">
+        <v>94.38</v>
+      </c>
+      <c r="H2">
+        <v>1.9713000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="C3">
+        <v>71.66</v>
+      </c>
+      <c r="D3">
+        <v>1.6702999999999999</v>
+      </c>
+      <c r="E3">
+        <v>4.36E-2</v>
+      </c>
+      <c r="F3">
+        <v>-1E-4</v>
+      </c>
+      <c r="G3">
+        <v>91.66</v>
+      </c>
+      <c r="H3">
+        <v>1.9375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="C4">
+        <v>76.13</v>
+      </c>
+      <c r="D4">
+        <v>1.8757999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.1072</v>
+      </c>
+      <c r="F4">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="G4">
+        <v>96.13</v>
+      </c>
+      <c r="H4">
+        <v>2.0165999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="D5">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.47</v>
+      </c>
+      <c r="H5">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>15.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="D6">
+        <v>5.8194999999999997</v>
+      </c>
+      <c r="E6">
+        <v>41.326999999999998</v>
+      </c>
+      <c r="F6">
+        <v>116.95780000000001</v>
+      </c>
+      <c r="G6">
+        <v>2.37</v>
+      </c>
+      <c r="H6">
+        <v>2.0045999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="C7">
+        <v>73.73</v>
+      </c>
+      <c r="D7">
+        <v>1.8757999999999999</v>
+      </c>
+      <c r="E7">
+        <v>4.36E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="G7">
+        <v>93.73</v>
+      </c>
+      <c r="H7">
+        <v>2.0165999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1.833</v>
+      </c>
+      <c r="C8">
+        <v>74.63</v>
+      </c>
+      <c r="D8">
+        <v>1.8498000000000001</v>
+      </c>
+      <c r="E8">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="G8">
+        <v>94.63</v>
+      </c>
+      <c r="H8">
+        <v>2.0068000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1.96</v>
+      </c>
+      <c r="C9">
+        <v>73.66</v>
+      </c>
+      <c r="D9">
+        <v>1.8287</v>
+      </c>
+      <c r="E9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="G9">
+        <v>93.66</v>
+      </c>
+      <c r="H9">
+        <v>1.9978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.927</v>
+      </c>
+      <c r="C10">
+        <v>72.66</v>
+      </c>
+      <c r="D10">
+        <v>1.788</v>
+      </c>
+      <c r="E10">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <v>92.66</v>
+      </c>
+      <c r="H10">
+        <v>1.9809000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1.974</v>
+      </c>
+      <c r="C11">
+        <v>72.78</v>
+      </c>
+      <c r="D11">
+        <v>1.7976000000000001</v>
+      </c>
+      <c r="E11">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G11">
+        <v>92.78</v>
+      </c>
+      <c r="H11">
+        <v>1.9817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2.2360000000000002</v>
+      </c>
+      <c r="C12">
+        <v>73.83</v>
+      </c>
+      <c r="D12">
+        <v>1.7444999999999999</v>
+      </c>
+      <c r="E12">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G12">
+        <v>93.83</v>
+      </c>
+      <c r="H12">
+        <v>1.9643999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="C13">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="D13">
+        <v>1.8025</v>
+      </c>
+      <c r="E13">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <v>95.29</v>
+      </c>
+      <c r="H13">
+        <v>1.9781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>2.069</v>
+      </c>
+      <c r="C14">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D14">
+        <v>1.7950999999999999</v>
+      </c>
+      <c r="E14">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="G14">
+        <v>96.1</v>
+      </c>
+      <c r="H14">
+        <v>1.9799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>2.258</v>
+      </c>
+      <c r="C15">
+        <v>76.13</v>
+      </c>
+      <c r="D15">
+        <v>1.7318</v>
+      </c>
+      <c r="E15">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G15">
+        <v>96.13</v>
+      </c>
+      <c r="H15">
+        <v>1.9570000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="C16">
+        <v>75.52</v>
+      </c>
+      <c r="D16">
+        <v>1.7357</v>
+      </c>
+      <c r="E16">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G16">
+        <v>95.52</v>
+      </c>
+      <c r="H16">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="C17">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="D17">
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="E17">
+        <v>8.09E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G17">
+        <v>95.4</v>
+      </c>
+      <c r="H17">
+        <v>1.9701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2.15</v>
+      </c>
+      <c r="C18">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="D18">
+        <v>1.7622</v>
+      </c>
+      <c r="E18">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G18">
+        <v>95.49</v>
+      </c>
+      <c r="H18">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>2.427</v>
+      </c>
+      <c r="C19">
+        <v>75.89</v>
+      </c>
+      <c r="D19">
+        <v>1.7109000000000001</v>
+      </c>
+      <c r="E19">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="F19">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G19">
+        <v>95.89</v>
+      </c>
+      <c r="H19">
+        <v>1.9507000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="C20">
+        <v>75.92</v>
+      </c>
+      <c r="D20">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="E20">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G20">
+        <v>95.92</v>
+      </c>
+      <c r="H20">
+        <v>1.9771000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="C21">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="D21">
+        <v>1.7377</v>
+      </c>
+      <c r="E21">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G21">
+        <v>93.43</v>
+      </c>
+      <c r="H21">
+        <v>1.9576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="C22">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="D22">
+        <v>1.6702999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.1072</v>
+      </c>
+      <c r="F22">
+        <v>-1E-4</v>
+      </c>
+      <c r="G22">
+        <v>91.68</v>
+      </c>
+      <c r="H22">
+        <v>1.9375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="C23">
+        <v>71.66</v>
+      </c>
+      <c r="D23">
+        <v>1.7201</v>
+      </c>
+      <c r="E23">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>91.66</v>
+      </c>
+      <c r="H23">
+        <v>1.9499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="C24">
+        <v>74.03</v>
+      </c>
+      <c r="D24">
+        <v>1.7231000000000001</v>
+      </c>
+      <c r="E24">
+        <v>8.72E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G24">
+        <v>94.03</v>
+      </c>
+      <c r="H24">
+        <v>1.9500999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>2.069</v>
+      </c>
+      <c r="C25">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="D25">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="E25">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="F25">
+        <v>2E-3</v>
+      </c>
+      <c r="G25">
+        <v>95.43</v>
+      </c>
+      <c r="H25">
+        <v>1.9695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="C2">
+        <v>139.94</v>
+      </c>
+      <c r="D2">
+        <v>1.8346</v>
+      </c>
+      <c r="E2">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="F2">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="G2">
+        <v>159.94</v>
+      </c>
+      <c r="H2">
+        <v>2.0552999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="C3">
+        <v>136.38</v>
+      </c>
+      <c r="D3">
+        <v>1.7405999999999999</v>
+      </c>
+      <c r="E3">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="G3">
+        <v>156.38</v>
+      </c>
+      <c r="H3">
+        <v>2.0392000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>142.06</v>
+      </c>
+      <c r="D4">
+        <v>1.8951</v>
+      </c>
+      <c r="E4">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="F4">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="G4">
+        <v>162.06</v>
+      </c>
+      <c r="H4">
+        <v>2.0657000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.223</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="D5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.82</v>
+      </c>
+      <c r="H5">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>20.382999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D6">
+        <v>4.2096</v>
+      </c>
+      <c r="E6">
+        <v>36.652299999999997</v>
+      </c>
+      <c r="F6">
+        <v>-92.513499999999993</v>
+      </c>
+      <c r="G6">
+        <v>1.77</v>
+      </c>
+      <c r="H6">
+        <v>0.64549999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="C7">
+        <v>140.78</v>
+      </c>
+      <c r="D7">
+        <v>1.8738999999999999</v>
+      </c>
+      <c r="E7">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="F7">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>160.78</v>
+      </c>
+      <c r="H7">
+        <v>2.0634000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="C8">
+        <v>142.06</v>
+      </c>
+      <c r="D8">
+        <v>1.8942000000000001</v>
+      </c>
+      <c r="E8">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F8">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="G8">
+        <v>162.06</v>
+      </c>
+      <c r="H8">
+        <v>2.0657000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1.472</v>
+      </c>
+      <c r="C9">
+        <v>140.72</v>
+      </c>
+      <c r="D9">
+        <v>1.8868</v>
+      </c>
+      <c r="E9">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="G9">
+        <v>160.72</v>
+      </c>
+      <c r="H9">
+        <v>2.0651999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="C10">
+        <v>138.74</v>
+      </c>
+      <c r="D10">
+        <v>1.8708</v>
+      </c>
+      <c r="E10">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <v>158.74</v>
+      </c>
+      <c r="H10">
+        <v>2.0611999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="C11">
+        <v>138.46</v>
+      </c>
+      <c r="D11">
+        <v>1.8951</v>
+      </c>
+      <c r="E11">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>158.46</v>
+      </c>
+      <c r="H11">
+        <v>2.0627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="C12">
+        <v>139.44999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.7816000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.1263</v>
+      </c>
+      <c r="F12">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="G12">
+        <v>159.44999999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.0505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1.651</v>
+      </c>
+      <c r="C13">
+        <v>141.16</v>
+      </c>
+      <c r="D13">
+        <v>1.8496999999999999</v>
+      </c>
+      <c r="E13">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="G13">
+        <v>161.16</v>
+      </c>
+      <c r="H13">
+        <v>2.0571999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1.728</v>
+      </c>
+      <c r="C14">
+        <v>141.75</v>
+      </c>
+      <c r="D14">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="E14">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="F14">
+        <v>-4.3E-3</v>
+      </c>
+      <c r="G14">
+        <v>161.75</v>
+      </c>
+      <c r="H14">
+        <v>2.0539000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1.909</v>
+      </c>
+      <c r="C15">
+        <v>141.71</v>
+      </c>
+      <c r="D15">
+        <v>1.7914000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="F15">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="G15">
+        <v>161.71</v>
+      </c>
+      <c r="H15">
+        <v>2.0493000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="C16">
+        <v>141.61000000000001</v>
+      </c>
+      <c r="D16">
+        <v>1.8025</v>
+      </c>
+      <c r="E16">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G16">
+        <v>161.61000000000001</v>
+      </c>
+      <c r="H16">
+        <v>2.0508000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="C17">
+        <v>140.4</v>
+      </c>
+      <c r="D17">
+        <v>1.849</v>
+      </c>
+      <c r="E17">
+        <v>9.11E-2</v>
+      </c>
+      <c r="F17">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="G17">
+        <v>160.4</v>
+      </c>
+      <c r="H17">
+        <v>2.0548999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="C18">
+        <v>136.38</v>
+      </c>
+      <c r="D18">
+        <v>1.7405999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="F18">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="G18">
+        <v>156.38</v>
+      </c>
+      <c r="H18">
+        <v>2.0392000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1.617</v>
+      </c>
+      <c r="C19">
+        <v>137.49</v>
+      </c>
+      <c r="D19">
+        <v>1.8616999999999999</v>
+      </c>
+      <c r="E19">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="F19">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="G19">
+        <v>157.49</v>
+      </c>
+      <c r="H19">
+        <v>2.0571999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="C20">
+        <v>141.93</v>
+      </c>
+      <c r="D20">
+        <v>1.7784</v>
+      </c>
+      <c r="E20">
+        <v>0.1275</v>
+      </c>
+      <c r="F20">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="G20">
+        <v>161.93</v>
+      </c>
+      <c r="H20">
+        <v>2.0484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="C21">
+        <v>139.97</v>
+      </c>
+      <c r="D21">
+        <v>1.8544</v>
+      </c>
+      <c r="E21">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="F21">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="G21">
+        <v>159.97</v>
+      </c>
+      <c r="H21">
+        <v>2.0606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="C22">
+        <v>136.72</v>
+      </c>
+      <c r="D22">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="E22">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>156.72</v>
+      </c>
+      <c r="H22">
+        <v>2.0556999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="C23">
+        <v>137.84</v>
+      </c>
+      <c r="D23">
+        <v>1.8582000000000001</v>
+      </c>
+      <c r="E23">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="F23">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="G23">
+        <v>157.84</v>
+      </c>
+      <c r="H23">
+        <v>2.0562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="C24">
+        <v>141.13</v>
+      </c>
+      <c r="D24">
+        <v>1.7713000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="F24">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="G24">
+        <v>161.13</v>
+      </c>
+      <c r="H24">
+        <v>2.0472999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="C25">
+        <v>140.54</v>
+      </c>
+      <c r="D25">
+        <v>1.8236000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F25">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="G25">
+        <v>160.54</v>
+      </c>
+      <c r="H25">
+        <v>2.0512999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="C2">
+        <v>153.76</v>
+      </c>
+      <c r="D2">
+        <v>1.8555999999999999</v>
+      </c>
+      <c r="E2">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="F2">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="G2">
+        <v>173.76</v>
+      </c>
+      <c r="H2">
+        <v>2.0617000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>150.63</v>
+      </c>
+      <c r="D3">
+        <v>1.8017000000000001</v>
+      </c>
+      <c r="E3">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>-6.6E-3</v>
+      </c>
+      <c r="G3">
+        <v>170.63</v>
+      </c>
+      <c r="H3">
+        <v>2.0531000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2.141</v>
+      </c>
+      <c r="C4" s="2">
+        <v>155.38999999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.9394</v>
+      </c>
+      <c r="E4">
+        <v>0.1177</v>
+      </c>
+      <c r="F4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G4">
+        <v>175.39</v>
+      </c>
+      <c r="H4">
+        <v>2.0750000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.77E-2</v>
+      </c>
+      <c r="F5">
+        <v>2E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.25</v>
+      </c>
+      <c r="H5">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>15.374000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="D6">
+        <v>3.7124999999999999</v>
+      </c>
+      <c r="E6">
+        <v>35.491100000000003</v>
+      </c>
+      <c r="F6">
+        <v>-98.148399999999995</v>
+      </c>
+      <c r="G6">
+        <v>1.37</v>
+      </c>
+      <c r="H6">
+        <v>0.53129999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="C7">
+        <v>153.68</v>
+      </c>
+      <c r="D7">
+        <v>1.8595999999999999</v>
+      </c>
+      <c r="E7">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>-3.2000000000000002E-3</v>
+      </c>
+      <c r="G7">
+        <v>173.68</v>
+      </c>
+      <c r="H7">
+        <v>2.0598000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="C8">
+        <v>154.08000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.9025000000000001</v>
+      </c>
+      <c r="E8">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <v>-1E-3</v>
+      </c>
+      <c r="G8">
+        <v>174.08</v>
+      </c>
+      <c r="H8">
+        <v>2.0682999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="C9">
+        <v>152.78</v>
+      </c>
+      <c r="D9">
+        <v>1.9394</v>
+      </c>
+      <c r="E9">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G9">
+        <v>172.78</v>
+      </c>
+      <c r="H9">
+        <v>2.0750000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="C10">
+        <v>152.08000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.8017000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.1177</v>
+      </c>
+      <c r="F10">
+        <v>-6.6E-3</v>
+      </c>
+      <c r="G10">
+        <v>172.08</v>
+      </c>
+      <c r="H10">
+        <v>2.0541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1.718</v>
+      </c>
+      <c r="C11">
+        <v>153.32</v>
+      </c>
+      <c r="D11">
+        <v>1.8873</v>
+      </c>
+      <c r="E11">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="F11">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="G11">
+        <v>173.32</v>
+      </c>
+      <c r="H11">
+        <v>2.0670000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="C12">
+        <v>153.96</v>
+      </c>
+      <c r="D12">
+        <v>1.8245</v>
+      </c>
+      <c r="E12">
+        <v>0.107</v>
+      </c>
+      <c r="F12">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="G12">
+        <v>173.96</v>
+      </c>
+      <c r="H12">
+        <v>2.0577000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1.587</v>
+      </c>
+      <c r="C13">
+        <v>154</v>
+      </c>
+      <c r="D13">
+        <v>1.8949</v>
+      </c>
+      <c r="E13">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F13">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="G13">
+        <v>174</v>
+      </c>
+      <c r="H13">
+        <v>2.0663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="C14">
+        <v>154.51</v>
+      </c>
+      <c r="D14">
+        <v>1.8798999999999999</v>
+      </c>
+      <c r="E14">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="F14">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <v>174.51</v>
+      </c>
+      <c r="H14">
+        <v>2.0670999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="C15">
+        <v>154.87</v>
+      </c>
+      <c r="D15">
+        <v>1.8219000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="F15">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="G15">
+        <v>174.87</v>
+      </c>
+      <c r="H15">
+        <v>2.0554000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>2.141</v>
+      </c>
+      <c r="C16">
+        <v>154.38999999999999</v>
+      </c>
+      <c r="D16">
+        <v>1.8028999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.1166</v>
+      </c>
+      <c r="F16">
+        <v>-6.6E-3</v>
+      </c>
+      <c r="G16">
+        <v>174.39</v>
+      </c>
+      <c r="H16">
+        <v>2.0531000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="C17">
+        <v>155.38999999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.8286</v>
+      </c>
+      <c r="E17">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="F17">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="G17">
+        <v>175.39</v>
+      </c>
+      <c r="H17">
+        <v>2.0598000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>1.756</v>
+      </c>
+      <c r="C18">
+        <v>154.75</v>
+      </c>
+      <c r="D18">
+        <v>1.8615999999999999</v>
+      </c>
+      <c r="E18">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="G18">
+        <v>174.75</v>
+      </c>
+      <c r="H18">
+        <v>2.0623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="C19">
+        <v>153.1</v>
+      </c>
+      <c r="D19">
+        <v>1.8776999999999999</v>
+      </c>
+      <c r="E19">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="F19">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="G19">
+        <v>173.1</v>
+      </c>
+      <c r="H19">
+        <v>2.0632999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>1.649</v>
+      </c>
+      <c r="C20">
+        <v>153.62</v>
+      </c>
+      <c r="D20">
+        <v>1.8773</v>
+      </c>
+      <c r="E20">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="G20">
+        <v>173.62</v>
+      </c>
+      <c r="H20">
+        <v>2.0628000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="C21">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="D21">
+        <v>1.8633999999999999</v>
+      </c>
+      <c r="E21">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="F21">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="G21">
+        <v>174.95</v>
+      </c>
+      <c r="H21">
+        <v>2.0642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="D22">
+        <v>1.8515999999999999</v>
+      </c>
+      <c r="E22">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>-4.1999999999999997E-3</v>
+      </c>
+      <c r="G22">
+        <v>174.2</v>
+      </c>
+      <c r="H22">
+        <v>2.0626000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1.883</v>
+      </c>
+      <c r="C23">
+        <v>150.63</v>
+      </c>
+      <c r="D23">
+        <v>1.8268</v>
+      </c>
+      <c r="E23">
+        <v>0.1046</v>
+      </c>
+      <c r="F23">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="G23">
+        <v>170.63</v>
+      </c>
+      <c r="H23">
+        <v>2.0556999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>1.81</v>
+      </c>
+      <c r="C24">
+        <v>151.79</v>
+      </c>
+      <c r="D24">
+        <v>1.8394999999999999</v>
+      </c>
+      <c r="E24">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="F24">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="G24">
+        <v>171.79</v>
+      </c>
+      <c r="H24">
+        <v>2.0594999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="C25">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="D25">
+        <v>1.8163</v>
+      </c>
+      <c r="E25">
+        <v>0.1119</v>
+      </c>
+      <c r="F25">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G25">
+        <v>175.3</v>
+      </c>
+      <c r="H25">
+        <v>2.0579999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1.778</v>
+      </c>
+      <c r="C2" s="2">
+        <v>133.84</v>
+      </c>
+      <c r="D2">
+        <v>1.8345</v>
+      </c>
+      <c r="E2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F2">
+        <v>-4.1999999999999997E-3</v>
+      </c>
+      <c r="G2">
+        <v>153.84</v>
+      </c>
+      <c r="H2">
+        <v>2.0653999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.331</v>
+      </c>
+      <c r="C3" s="2">
+        <v>126.11</v>
+      </c>
+      <c r="D3">
+        <v>1.7571000000000001</v>
+      </c>
+      <c r="E3">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>-8.0999999999999996E-3</v>
+      </c>
+      <c r="G3">
+        <v>146.11000000000001</v>
+      </c>
+      <c r="H3">
+        <v>2.0531000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>136.82</v>
+      </c>
+      <c r="D4">
+        <v>1.9209000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="F4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G4">
+        <v>156.82</v>
+      </c>
+      <c r="H4">
+        <v>2.0756999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="D5">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G5">
+        <v>2.98</v>
+      </c>
+      <c r="H5">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>23.966000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4.4644000000000004</v>
+      </c>
+      <c r="E6">
+        <v>38.544199999999996</v>
+      </c>
+      <c r="F6">
+        <v>-104.49850000000001</v>
+      </c>
+      <c r="G6">
+        <v>3.48</v>
+      </c>
+      <c r="H6">
+        <v>0.54690000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="C7">
+        <v>135.22999999999999</v>
+      </c>
+      <c r="D7">
+        <v>1.8189</v>
+      </c>
+      <c r="E7">
+        <v>0.1124</v>
+      </c>
+      <c r="F7">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="G7">
+        <v>155.22999999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.0668000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1.633</v>
+      </c>
+      <c r="C8">
+        <v>134.22999999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.8852</v>
+      </c>
+      <c r="E8">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="F8">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="G8">
+        <v>154.22999999999999</v>
+      </c>
+      <c r="H8">
+        <v>2.0746000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="C9">
+        <v>135.6</v>
+      </c>
+      <c r="D9">
+        <v>1.8794</v>
+      </c>
+      <c r="E9">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="G9">
+        <v>155.6</v>
+      </c>
+      <c r="H9">
+        <v>2.0756999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="C10">
+        <v>135.62</v>
+      </c>
+      <c r="D10">
+        <v>1.8605</v>
+      </c>
+      <c r="E10">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="F10">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <v>155.62</v>
+      </c>
+      <c r="H10">
+        <v>2.0722999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1.675</v>
+      </c>
+      <c r="C11">
+        <v>135.46</v>
+      </c>
+      <c r="D11">
+        <v>1.8653999999999999</v>
+      </c>
+      <c r="E11">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="F11">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="G11">
+        <v>155.46</v>
+      </c>
+      <c r="H11">
+        <v>2.0726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="C12">
+        <v>135.47999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.7571000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="F12">
+        <v>-8.0999999999999996E-3</v>
+      </c>
+      <c r="G12">
+        <v>155.47999999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.0531000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1.839</v>
+      </c>
+      <c r="C13">
+        <v>134.63999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.8173999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="F13">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="G13">
+        <v>154.63999999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.0659999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1.879</v>
+      </c>
+      <c r="C14">
+        <v>133.62</v>
+      </c>
+      <c r="D14">
+        <v>1.8304</v>
+      </c>
+      <c r="E14">
+        <v>0.106</v>
+      </c>
+      <c r="F14">
+        <v>-4.5999999999999999E-3</v>
+      </c>
+      <c r="G14">
+        <v>153.62</v>
+      </c>
+      <c r="H14">
+        <v>2.0661999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="C15">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="D15">
+        <v>1.7890999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.1265</v>
+      </c>
+      <c r="F15">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G15">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.0611999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="C16">
+        <v>134.99</v>
+      </c>
+      <c r="D16">
+        <v>1.8863000000000001</v>
+      </c>
+      <c r="E16">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="F16">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="G16">
+        <v>154.99</v>
+      </c>
+      <c r="H16">
+        <v>2.0726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="C17">
+        <v>130.37</v>
+      </c>
+      <c r="D17">
+        <v>1.8104</v>
+      </c>
+      <c r="E17">
+        <v>0.1139</v>
+      </c>
+      <c r="F17">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="G17">
+        <v>150.37</v>
+      </c>
+      <c r="H17">
+        <v>2.0607000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>1.915</v>
+      </c>
+      <c r="C18">
+        <v>126.11</v>
+      </c>
+      <c r="D18">
+        <v>1.7799</v>
+      </c>
+      <c r="E18">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="F18">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G18">
+        <v>146.11000000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.0550000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1.331</v>
+      </c>
+      <c r="C19">
+        <v>128.01</v>
+      </c>
+      <c r="D19">
+        <v>1.9209000000000001</v>
+      </c>
+      <c r="E19">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G19">
+        <v>148.01</v>
+      </c>
+      <c r="H19">
+        <v>2.0737999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="C20">
+        <v>133.56</v>
+      </c>
+      <c r="D20">
+        <v>1.8258000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.1061</v>
+      </c>
+      <c r="F20">
+        <v>-4.5999999999999999E-3</v>
+      </c>
+      <c r="G20">
+        <v>153.56</v>
+      </c>
+      <c r="H20">
+        <v>2.0623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>2.081</v>
+      </c>
+      <c r="C21">
+        <v>136.82</v>
+      </c>
+      <c r="D21">
+        <v>1.7837000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="F21">
+        <v>-7.1000000000000004E-3</v>
+      </c>
+      <c r="G21">
+        <v>156.82</v>
+      </c>
+      <c r="H21">
+        <v>2.0573000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="C22">
+        <v>135.83000000000001</v>
+      </c>
+      <c r="D22">
+        <v>1.8016000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.1183</v>
+      </c>
+      <c r="F22">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>155.83000000000001</v>
+      </c>
+      <c r="H22">
+        <v>2.0594000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1.54</v>
+      </c>
+      <c r="C23">
+        <v>136.69</v>
+      </c>
+      <c r="D23">
+        <v>1.8746</v>
+      </c>
+      <c r="E23">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>156.69</v>
+      </c>
+      <c r="H23">
+        <v>2.0678999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>1.631</v>
+      </c>
+      <c r="C24">
+        <v>136.71</v>
+      </c>
+      <c r="D24">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="E24">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="G24">
+        <v>156.71</v>
+      </c>
+      <c r="H24">
+        <v>2.0693999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>1.863</v>
+      </c>
+      <c r="C25">
+        <v>130.83000000000001</v>
+      </c>
+      <c r="D25">
+        <v>1.7923</v>
+      </c>
+      <c r="E25">
+        <v>0.121</v>
+      </c>
+      <c r="F25">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="G25">
+        <v>150.83000000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.0547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>123.66</v>
+      </c>
+      <c r="D2">
+        <v>1.7961</v>
+      </c>
+      <c r="E2">
+        <v>0.1086</v>
+      </c>
+      <c r="F2">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+      <c r="G2">
+        <v>143.66</v>
+      </c>
+      <c r="H2">
+        <v>2.0323000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>121.33</v>
+      </c>
+      <c r="D3">
+        <v>1.7157</v>
+      </c>
+      <c r="E3">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="F3">
+        <v>-0.01</v>
+      </c>
+      <c r="G3">
+        <v>141.33000000000001</v>
+      </c>
+      <c r="H3">
+        <v>2.0179999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>128.08000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.8703000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.1464</v>
+      </c>
+      <c r="F4">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="G4">
+        <v>148.08000000000001</v>
+      </c>
+      <c r="H4">
+        <v>2.0472999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.216</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="D5">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.91</v>
+      </c>
+      <c r="H5">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>25.03</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="D6">
+        <v>4.3052000000000001</v>
+      </c>
+      <c r="E6">
+        <v>33.835099999999997</v>
+      </c>
+      <c r="F6">
+        <v>-75.648499999999999</v>
+      </c>
+      <c r="G6">
+        <v>2.35</v>
+      </c>
+      <c r="H6">
+        <v>0.71960000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="C7">
+        <v>121.57</v>
+      </c>
+      <c r="D7">
+        <v>1.8463000000000001</v>
+      </c>
+      <c r="E7">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="F7">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="G7">
+        <v>141.57</v>
+      </c>
+      <c r="H7">
+        <v>2.0472999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="C8">
+        <v>123.35</v>
+      </c>
+      <c r="D8">
+        <v>1.8043</v>
+      </c>
+      <c r="E8">
+        <v>0.106</v>
+      </c>
+      <c r="F8">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="G8">
+        <v>143.35</v>
+      </c>
+      <c r="H8">
+        <v>2.0363000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2.077</v>
+      </c>
+      <c r="C9">
+        <v>122.41</v>
+      </c>
+      <c r="D9">
+        <v>1.7297</v>
+      </c>
+      <c r="E9">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="F9">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="G9">
+        <v>142.41</v>
+      </c>
+      <c r="H9">
+        <v>2.0226000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="C10">
+        <v>121.72</v>
+      </c>
+      <c r="D10">
+        <v>1.7736000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.1201</v>
+      </c>
+      <c r="F10">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="G10">
+        <v>141.72</v>
+      </c>
+      <c r="H10">
+        <v>2.0305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="C11">
+        <v>121.33</v>
+      </c>
+      <c r="D11">
+        <v>1.7597</v>
+      </c>
+      <c r="E11">
+        <v>0.1236</v>
+      </c>
+      <c r="F11">
+        <v>-7.1000000000000004E-3</v>
+      </c>
+      <c r="G11">
+        <v>141.33000000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1.466</v>
+      </c>
+      <c r="C12">
+        <v>121.54</v>
+      </c>
+      <c r="D12">
+        <v>1.8414999999999999</v>
+      </c>
+      <c r="E12">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="F12">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="G12">
+        <v>141.54</v>
+      </c>
+      <c r="H12">
+        <v>2.0352999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="C13">
+        <v>122.42</v>
+      </c>
+      <c r="D13">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.1464</v>
+      </c>
+      <c r="F13">
+        <v>-0.01</v>
+      </c>
+      <c r="G13">
+        <v>142.41999999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.0245000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="C14">
+        <v>123.75</v>
+      </c>
+      <c r="D14">
+        <v>1.8172999999999999</v>
+      </c>
+      <c r="E14">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="F14">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="G14">
+        <v>143.75</v>
+      </c>
+      <c r="H14">
+        <v>2.0365000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1.42</v>
+      </c>
+      <c r="C15">
+        <v>124.28</v>
+      </c>
+      <c r="D15">
+        <v>1.8703000000000001</v>
+      </c>
+      <c r="E15">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="F15">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="G15">
+        <v>144.28</v>
+      </c>
+      <c r="H15">
+        <v>2.0432000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="C16">
+        <v>123.65</v>
+      </c>
+      <c r="D16">
+        <v>1.8327</v>
+      </c>
+      <c r="E16">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F16">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="G16">
+        <v>143.65</v>
+      </c>
+      <c r="H16">
+        <v>2.0394000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="C17">
+        <v>125.52</v>
+      </c>
+      <c r="D17">
+        <v>1.7415</v>
+      </c>
+      <c r="E17">
+        <v>0.1356</v>
+      </c>
+      <c r="F17">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="G17">
+        <v>145.52000000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.0253999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="C18">
+        <v>128.08000000000001</v>
+      </c>
+      <c r="D18">
+        <v>1.7157</v>
+      </c>
+      <c r="E18">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F18">
+        <v>-0.01</v>
+      </c>
+      <c r="G18">
+        <v>148.08000000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.0179999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="C19">
+        <v>127.3</v>
+      </c>
+      <c r="D19">
+        <v>1.84</v>
+      </c>
+      <c r="E19">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="G19">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.0392000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>1.675</v>
+      </c>
+      <c r="C20">
+        <v>124.69</v>
+      </c>
+      <c r="D20">
+        <v>1.8057000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.1043</v>
+      </c>
+      <c r="F20">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="G20">
+        <v>144.69</v>
+      </c>
+      <c r="H20">
+        <v>2.0335999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>1.821</v>
+      </c>
+      <c r="C21">
+        <v>123.3</v>
+      </c>
+      <c r="D21">
+        <v>1.8431</v>
+      </c>
+      <c r="E21">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="F21">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="G21">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.0392000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>1.784</v>
+      </c>
+      <c r="C22">
+        <v>122.92</v>
+      </c>
+      <c r="D22">
+        <v>1.7797000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="F22">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="G22">
+        <v>142.91999999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.0266000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="C23">
+        <v>122.42</v>
+      </c>
+      <c r="D23">
+        <v>1.8105</v>
+      </c>
+      <c r="E23">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="F23">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="G23">
+        <v>142.41999999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.0289999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>1.754</v>
+      </c>
+      <c r="C24">
+        <v>123.45</v>
+      </c>
+      <c r="D24">
+        <v>1.7704</v>
+      </c>
+      <c r="E24">
+        <v>0.1202</v>
+      </c>
+      <c r="F24">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G24">
+        <v>143.44999999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.0268999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>1.623</v>
+      </c>
+      <c r="C25">
+        <v>125.83</v>
+      </c>
+      <c r="D25">
+        <v>1.8238000000000001</v>
+      </c>
+      <c r="E25">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="F25">
+        <v>-4.3E-3</v>
+      </c>
+      <c r="G25">
+        <v>145.83000000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.0356999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>